--- a/biology/Zoologie/Adscita/Adscita.xlsx
+++ b/biology/Zoologie/Adscita/Adscita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adscita est un genre de lépidoptères (papillons) de la famille des Zygaenidae et de la sous-famille des Procridinae.
 Ses espèces comptent parmi celles appelées en français les « Turquoises » ou les « Procris ».
@@ -512,12 +524,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Adscita a été décrit par l'entomologiste suédois Anders Jahan Retzius en 1783. Son espèce type est Adscita turcosa Retzius, 1783[1],[2].
-Adscita Retzius, 1783 admet pour synonymes juniors subjectifs[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Adscita a été décrit par l'entomologiste suédois Anders Jahan Retzius en 1783. Son espèce type est Adscita turcosa Retzius, 1783,.
+Adscita Retzius, 1783 admet pour synonymes juniors subjectifs :
 Procris Fabricius, 1807 (espèce type : Sphinx statices Linnaeus, 1758),
-Ino Leach, [1815] (nom préoccupé ; espèce type : Sphinx statices Linnaeus, 1758).</t>
+Ino Leach,  (nom préoccupé ; espèce type : Sphinx statices Linnaeus, 1758).</t>
         </is>
       </c>
     </row>
@@ -545,9 +559,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>D'après Funet[2] avec compléments :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>D'après Funet avec compléments :
 Adscita albanica (Naufock, 1926)
 Adscita alpina (Alberti, 1937) — la Turquoise de la vinette, le Procris des Alpes
 Adscita amaura (Staudinger, 1887)
